--- a/biology/Médecine/Giulia_Grillo/Giulia_Grillo.xlsx
+++ b/biology/Médecine/Giulia_Grillo/Giulia_Grillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Giulia Grillo (née le 30 mai 1975 à Catane) est une femme politique italienne, membre du Mouvement 5 étoiles, nommée le 1er juin 2018, ministre de la Santé du gouvernement Conte[1].
+Giulia Grillo (née le 30 mai 1975 à Catane) est une femme politique italienne, membre du Mouvement 5 étoiles, nommée le 1er juin 2018, ministre de la Santé du gouvernement Conte.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giulia Grillo est née à Catane en 1975. Docteur en droit, elle milite depuis ses débuts au sein du Mouvement 5 étoiles, dans les rangs duquel elle a été élue à la Chambre des députés en 2013. Durant la 17e législature, elle a notamment été membre de la Commission des affaires sociales et de la santé, et en 2016 chef de groupe adjoint puis chef de groupe du M5S à la Chambre. En 2018, elle a été réélue députée et a occupé le poste de chef de groupe du mouvement dans l'hémicycle. Du 1er juin de la même année au 5 septembre 2019, elle est ministre de la Santé dans le gouvernement Conte[1].
-Le 7 août 2020, lors d'un interview au quotidien La Stampa, elle déclare vouloir abandonner son parti au profit du Gruppo misto[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giulia Grillo est née à Catane en 1975. Docteur en droit, elle milite depuis ses débuts au sein du Mouvement 5 étoiles, dans les rangs duquel elle a été élue à la Chambre des députés en 2013. Durant la 17e législature, elle a notamment été membre de la Commission des affaires sociales et de la santé, et en 2016 chef de groupe adjoint puis chef de groupe du M5S à la Chambre. En 2018, elle a été réélue députée et a occupé le poste de chef de groupe du mouvement dans l'hémicycle. Du 1er juin de la même année au 5 septembre 2019, elle est ministre de la Santé dans le gouvernement Conte.
+Le 7 août 2020, lors d'un interview au quotidien La Stampa, elle déclare vouloir abandonner son parti au profit du Gruppo misto.
 </t>
         </is>
       </c>
